--- a/data/trans_orig/P15A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>25174</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15662</v>
+        <v>16207</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36284</v>
+        <v>35617</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02439967457260864</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01518055163341319</v>
+        <v>0.01570868837754972</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03516846135234522</v>
+        <v>0.03452189316900474</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -765,19 +765,19 @@
         <v>45528</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33637</v>
+        <v>32042</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60269</v>
+        <v>59618</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03461895861386442</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02557723803935858</v>
+        <v>0.02436437588177986</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04582824223602802</v>
+        <v>0.04533264549891029</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>70</v>
@@ -786,19 +786,19 @@
         <v>70702</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56289</v>
+        <v>54467</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>88653</v>
+        <v>87191</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03012632635253519</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02398489081541067</v>
+        <v>0.02320881800184988</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03777542195697463</v>
+        <v>0.03715268455952086</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>1006549</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>995439</v>
+        <v>996106</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1016061</v>
+        <v>1015516</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9756003254273914</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9648315386476548</v>
+        <v>0.9654781068309953</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9848194483665869</v>
+        <v>0.9842913116224503</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1247</v>
@@ -836,19 +836,19 @@
         <v>1269585</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1254844</v>
+        <v>1255495</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1281476</v>
+        <v>1283071</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9653810413861356</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9541717577639723</v>
+        <v>0.9546673545010897</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9744227619606418</v>
+        <v>0.9756356241182205</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2259</v>
@@ -857,19 +857,19 @@
         <v>2276133</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2258182</v>
+        <v>2259644</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2290546</v>
+        <v>2292368</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9698736736474648</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.962224578043025</v>
+        <v>0.9628473154404792</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.976015109184589</v>
+        <v>0.9767911819981497</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>78503</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63553</v>
+        <v>62221</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98948</v>
+        <v>97075</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04635791132443759</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03752969156144954</v>
+        <v>0.03674305315087612</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05843100572921938</v>
+        <v>0.05732496068052419</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -982,19 +982,19 @@
         <v>35042</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24347</v>
+        <v>24718</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49472</v>
+        <v>47817</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02207157587413957</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01533517497385001</v>
+        <v>0.01556888132660937</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0311600871932235</v>
+        <v>0.03011738331948156</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>110</v>
@@ -1003,19 +1003,19 @@
         <v>113546</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94475</v>
+        <v>93757</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>138215</v>
+        <v>136995</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03460608131358594</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02879388601454754</v>
+        <v>0.02857492056412075</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04212468000419818</v>
+        <v>0.04175285586832354</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1614910</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1594465</v>
+        <v>1596338</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1629860</v>
+        <v>1631192</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9536420886755624</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9415689942707806</v>
+        <v>0.9426750393194756</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9624703084385505</v>
+        <v>0.9632569468491237</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1520</v>
@@ -1053,19 +1053,19 @@
         <v>1552631</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1538201</v>
+        <v>1539856</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1563326</v>
+        <v>1562955</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9779284241258605</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9688399128067768</v>
+        <v>0.9698826166805185</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.98466482502615</v>
+        <v>0.9844311186733903</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3093</v>
@@ -1074,19 +1074,19 @@
         <v>3167540</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3142871</v>
+        <v>3144091</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3186611</v>
+        <v>3187329</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9653939186864141</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9578753199958019</v>
+        <v>0.9582471441316763</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9712061139854524</v>
+        <v>0.9714250794358793</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>19400</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11943</v>
+        <v>11208</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30314</v>
+        <v>29669</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03518271091944393</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02165922250771019</v>
+        <v>0.02032560632318994</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05497505294722328</v>
+        <v>0.05380667856745875</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1199,19 +1199,19 @@
         <v>13236</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6778</v>
+        <v>7649</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22339</v>
+        <v>22627</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02778166426474143</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01422705892691765</v>
+        <v>0.01605488328127532</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04689046442903343</v>
+        <v>0.04749373021688159</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -1220,19 +1220,19 @@
         <v>32636</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21991</v>
+        <v>22437</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45567</v>
+        <v>46169</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03175220147526678</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02139559221409055</v>
+        <v>0.02182992415866833</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04433323530498177</v>
+        <v>0.0449190715512755</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>532008</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>521094</v>
+        <v>521739</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>539465</v>
+        <v>540200</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9648172890805561</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9450249470527768</v>
+        <v>0.9461933214325423</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9783407774922898</v>
+        <v>0.9796743936768102</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>440</v>
@@ -1270,19 +1270,19 @@
         <v>463176</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>454073</v>
+        <v>453785</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>469634</v>
+        <v>468763</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9722183357352586</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.953109535570966</v>
+        <v>0.9525062697831181</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9857729410730823</v>
+        <v>0.9839451167187245</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>950</v>
@@ -1291,19 +1291,19 @@
         <v>995184</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>982253</v>
+        <v>981651</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1005829</v>
+        <v>1005383</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9682477985247332</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9556667646950182</v>
+        <v>0.9550809284487244</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9786044077859093</v>
+        <v>0.9781700758413316</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>123077</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>102176</v>
+        <v>103904</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>148039</v>
+        <v>149050</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03756299990216581</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03118408752751014</v>
+        <v>0.03171136369708693</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04518144908536175</v>
+        <v>0.04548993550447905</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>90</v>
@@ -1416,19 +1416,19 @@
         <v>93806</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74263</v>
+        <v>76541</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>113321</v>
+        <v>116262</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02775978291489749</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02197660683752431</v>
+        <v>0.02265076232825085</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03353484582512958</v>
+        <v>0.03440526181672535</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>209</v>
@@ -1437,19 +1437,19 @@
         <v>216883</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>189300</v>
+        <v>188045</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>250854</v>
+        <v>248478</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03258579206000368</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02844166590762844</v>
+        <v>0.02825312315176922</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03768988355623194</v>
+        <v>0.03733294285164939</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3153466</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3128504</v>
+        <v>3127493</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3174367</v>
+        <v>3172639</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9624370000978342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9548185509146384</v>
+        <v>0.954510064495521</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9688159124724904</v>
+        <v>0.9682886363029128</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3207</v>
@@ -1487,19 +1487,19 @@
         <v>3285391</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3265876</v>
+        <v>3262935</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3304934</v>
+        <v>3302656</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9722402170851026</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9664651541748703</v>
+        <v>0.9655947381832752</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9780233931624757</v>
+        <v>0.9773492376717494</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6302</v>
@@ -1508,19 +1508,19 @@
         <v>6438858</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6404887</v>
+        <v>6407263</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6466441</v>
+        <v>6467696</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9674142079399963</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9623101164437681</v>
+        <v>0.9626670571483505</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9715583340923715</v>
+        <v>0.9717468768482306</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>24149</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14589</v>
+        <v>15046</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35431</v>
+        <v>36948</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02477766495436921</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01496816210933142</v>
+        <v>0.01543746499634573</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0363529452185372</v>
+        <v>0.03790913407955978</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -1872,19 +1872,19 @@
         <v>43571</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31454</v>
+        <v>31949</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57302</v>
+        <v>58590</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03256956245701546</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02351212722379572</v>
+        <v>0.02388168148712067</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04283316417302454</v>
+        <v>0.04379576122105618</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -1893,19 +1893,19 @@
         <v>67721</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52379</v>
+        <v>52428</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85262</v>
+        <v>85101</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02928544702277061</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02265113391113786</v>
+        <v>0.02267198085428325</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03687109508192699</v>
+        <v>0.03680123623517371</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>950494</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>939212</v>
+        <v>937695</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>960054</v>
+        <v>959597</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9752223350456308</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9636470547814628</v>
+        <v>0.9620908659204404</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9850318378906686</v>
+        <v>0.9845625350036543</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1206</v>
@@ -1943,19 +1943,19 @@
         <v>1294226</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1280495</v>
+        <v>1279207</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1306343</v>
+        <v>1305848</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9674304375429845</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9571668358269755</v>
+        <v>0.9562042387789438</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9764878727762042</v>
+        <v>0.9761183185128793</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2092</v>
@@ -1964,19 +1964,19 @@
         <v>2244719</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2227178</v>
+        <v>2227339</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2260061</v>
+        <v>2260012</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9707145529772294</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9631289049180733</v>
+        <v>0.9631987637648259</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9773488660888624</v>
+        <v>0.9773280191457167</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>61113</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46119</v>
+        <v>45863</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76958</v>
+        <v>78289</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03111715834598111</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02348282974033611</v>
+        <v>0.02335241293786679</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03918538889658026</v>
+        <v>0.03986306929300686</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -2089,19 +2089,19 @@
         <v>39821</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28187</v>
+        <v>28621</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53970</v>
+        <v>53883</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02265385103890965</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01603545141586119</v>
+        <v>0.01628216172589171</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03070284150597496</v>
+        <v>0.03065375578100759</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -2110,19 +2110,19 @@
         <v>100934</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81775</v>
+        <v>81897</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>122018</v>
+        <v>124274</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02711990332980063</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02197226094735102</v>
+        <v>0.02200483758679668</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03278494819887368</v>
+        <v>0.03339111691848863</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1902844</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1886999</v>
+        <v>1885668</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1917838</v>
+        <v>1918094</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9688828416540188</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9608146111034197</v>
+        <v>0.9601369307069931</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9765171702596638</v>
+        <v>0.9766475870621333</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1598</v>
@@ -2160,19 +2160,19 @@
         <v>1717982</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1703833</v>
+        <v>1703920</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1729616</v>
+        <v>1729182</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9773461489610904</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9692971584940251</v>
+        <v>0.9693462442189924</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9839645485841387</v>
+        <v>0.9837178382741085</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3394</v>
@@ -2181,19 +2181,19 @@
         <v>3620826</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3599742</v>
+        <v>3597486</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3639985</v>
+        <v>3639863</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9728800966701994</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9672150518011262</v>
+        <v>0.9666088830815115</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9780277390526489</v>
+        <v>0.9779951624132035</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>13053</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7063</v>
+        <v>6768</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21690</v>
+        <v>22804</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.027126477639552</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0146785943967939</v>
+        <v>0.01406539150505991</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04507680433814013</v>
+        <v>0.04739231770120287</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -2306,19 +2306,19 @@
         <v>14939</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8117</v>
+        <v>8034</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26468</v>
+        <v>26243</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03257251154134987</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01769935598876792</v>
+        <v>0.01751773291866814</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05771137043310618</v>
+        <v>0.05721960385794094</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -2327,19 +2327,19 @@
         <v>27992</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18924</v>
+        <v>18559</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40920</v>
+        <v>41520</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02978415710692041</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02013637729377502</v>
+        <v>0.01974727839972721</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04354100000189962</v>
+        <v>0.04417951355853589</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>468128</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>459491</v>
+        <v>458377</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>474118</v>
+        <v>474413</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.972873522360448</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9549231956618598</v>
+        <v>0.9526076822987971</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9853214056032061</v>
+        <v>0.9859346084949401</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>400</v>
@@ -2377,19 +2377,19 @@
         <v>443692</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>432163</v>
+        <v>432388</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>450514</v>
+        <v>450597</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9674274884586501</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9422886295668941</v>
+        <v>0.942780396142059</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9823006440112322</v>
+        <v>0.9824822670813318</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>826</v>
@@ -2398,19 +2398,19 @@
         <v>911821</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>898893</v>
+        <v>898293</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>920889</v>
+        <v>921254</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9702158428930796</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9564589999981004</v>
+        <v>0.9558204864414642</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9798636227062248</v>
+        <v>0.9802527216002728</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>98315</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78292</v>
+        <v>79549</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>118342</v>
+        <v>118225</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02874888318946022</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02289390883927777</v>
+        <v>0.02326148588880997</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03460500543128324</v>
+        <v>0.03457085634893104</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>90</v>
@@ -2523,19 +2523,19 @@
         <v>98331</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79373</v>
+        <v>77815</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>119014</v>
+        <v>116597</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02766596592093224</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02233209375897732</v>
+        <v>0.02189349744409172</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03348506643443138</v>
+        <v>0.03280502072849822</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>184</v>
@@ -2544,19 +2544,19 @@
         <v>196646</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>170237</v>
+        <v>170101</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>225458</v>
+        <v>227470</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02819698604910022</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02441024735798299</v>
+        <v>0.02439063161945909</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03232825967645313</v>
+        <v>0.0326168504267236</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3321467</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3301440</v>
+        <v>3301557</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3341490</v>
+        <v>3340233</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9712511168105398</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9653949945687168</v>
+        <v>0.965429143651069</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9771060911607218</v>
+        <v>0.9767385141111902</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3204</v>
@@ -2594,19 +2594,19 @@
         <v>3455899</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3435216</v>
+        <v>3437633</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3474857</v>
+        <v>3476415</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9723340340790677</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9665149335655685</v>
+        <v>0.9671949792715018</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9776679062410226</v>
+        <v>0.9781065025559083</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6312</v>
@@ -2615,19 +2615,19 @@
         <v>6777366</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6748554</v>
+        <v>6746542</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6803775</v>
+        <v>6803911</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9718030139508997</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9676717403235467</v>
+        <v>0.9673831495732763</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.975589752642017</v>
+        <v>0.975609368380541</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>21109</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13958</v>
+        <v>13901</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31663</v>
+        <v>30563</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02798282834472491</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01850390530192643</v>
+        <v>0.01842732875511012</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04197364743693642</v>
+        <v>0.04051633747094206</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -2979,19 +2979,19 @@
         <v>42321</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29812</v>
+        <v>29755</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56905</v>
+        <v>58724</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04254839618964611</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02997233367013247</v>
+        <v>0.02991439498365408</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05721001623548512</v>
+        <v>0.05903893408909982</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -3000,19 +3000,19 @@
         <v>63430</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49545</v>
+        <v>49122</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81366</v>
+        <v>81790</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03626626611169842</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0283277873494463</v>
+        <v>0.02808560832811697</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0465215274649893</v>
+        <v>0.04676360495746002</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>733238</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>722684</v>
+        <v>723784</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>740389</v>
+        <v>740446</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9720171716552751</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9580263525630636</v>
+        <v>0.959483662529058</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9814960946980738</v>
+        <v>0.9815726712448899</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>856</v>
@@ -3050,19 +3050,19 @@
         <v>952339</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>937755</v>
+        <v>935936</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>964848</v>
+        <v>964905</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9574516038103539</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9427899837645147</v>
+        <v>0.9409610659108997</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9700276663298675</v>
+        <v>0.9700856050163458</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1595</v>
@@ -3071,19 +3071,19 @@
         <v>1685577</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1667641</v>
+        <v>1667217</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1699462</v>
+        <v>1699885</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9637337338883015</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9534784725350111</v>
+        <v>0.9532363950425399</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9716722126505537</v>
+        <v>0.9719143916718829</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>53755</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40077</v>
+        <v>41226</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69976</v>
+        <v>69782</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02588886980585361</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01930116752188825</v>
+        <v>0.0198548218896176</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03370066989922034</v>
+        <v>0.03360732576420461</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -3196,19 +3196,19 @@
         <v>31513</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21841</v>
+        <v>21268</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45771</v>
+        <v>44753</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01584942819089494</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01098472184181801</v>
+        <v>0.0106966699894015</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02302033060994618</v>
+        <v>0.02250838581685627</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -3217,19 +3217,19 @@
         <v>85269</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>69168</v>
+        <v>68491</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107822</v>
+        <v>106909</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02097793027060564</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01701689439836401</v>
+        <v>0.01685034777414909</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02652642899237764</v>
+        <v>0.02630191922957548</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2022630</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2006409</v>
+        <v>2006603</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2036308</v>
+        <v>2035159</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9741111301941464</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9662993301007795</v>
+        <v>0.9663926742357953</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9806988324781115</v>
+        <v>0.9801451781103824</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1880</v>
@@ -3267,19 +3267,19 @@
         <v>1956787</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1942529</v>
+        <v>1943547</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1966459</v>
+        <v>1967032</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.984150571809105</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.976979669390054</v>
+        <v>0.9774916141831435</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9890152781581819</v>
+        <v>0.9893033300105979</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3781</v>
@@ -3288,19 +3288,19 @@
         <v>3979416</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3956863</v>
+        <v>3957776</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3995517</v>
+        <v>3996194</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9790220697293943</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9734735710076223</v>
+        <v>0.9736980807704244</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9829831056016358</v>
+        <v>0.9831496522258509</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>12292</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6343</v>
+        <v>6492</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21630</v>
+        <v>20723</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02247653692851901</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01159907794664635</v>
+        <v>0.01187083061541488</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03955076187959378</v>
+        <v>0.03789220941253003</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3413,19 +3413,19 @@
         <v>13675</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7864</v>
+        <v>7832</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23207</v>
+        <v>23878</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02490267456288413</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0143205646811105</v>
+        <v>0.01426154111098501</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04226042144322572</v>
+        <v>0.04348170298597165</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -3434,19 +3434,19 @@
         <v>25967</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17569</v>
+        <v>17601</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38944</v>
+        <v>40211</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02369210060386443</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01602962845885036</v>
+        <v>0.01605861791396744</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03553211754663426</v>
+        <v>0.0366881312048006</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>534594</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>525256</v>
+        <v>526163</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>540543</v>
+        <v>540394</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.977523463071481</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9604492381204064</v>
+        <v>0.96210779058747</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9884009220533542</v>
+        <v>0.9881291693845852</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>513</v>
@@ -3484,19 +3484,19 @@
         <v>535465</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>525933</v>
+        <v>525262</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>541276</v>
+        <v>541308</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9750973254371159</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9577395785567742</v>
+        <v>0.9565182970140279</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9856794353188895</v>
+        <v>0.985738458889015</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1003</v>
@@ -3505,19 +3505,19 @@
         <v>1070060</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1057083</v>
+        <v>1055816</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1078458</v>
+        <v>1078426</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9763078993961356</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9644678824533657</v>
+        <v>0.9633118687951995</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9839703715411496</v>
+        <v>0.9839413820860327</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>87156</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70448</v>
+        <v>70800</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106882</v>
+        <v>108028</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02580402095655926</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02085735182106165</v>
+        <v>0.02096154084291854</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03164418570566199</v>
+        <v>0.03198334736986317</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -3630,19 +3630,19 @@
         <v>87510</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69089</v>
+        <v>68401</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>107961</v>
+        <v>108452</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02477553408658436</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0195603543321159</v>
+        <v>0.01936564414887837</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03056555187451612</v>
+        <v>0.03070477872495624</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>162</v>
@@ -3651,19 +3651,19 @@
         <v>174666</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>150861</v>
+        <v>148600</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>204830</v>
+        <v>203805</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02527828042719519</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02183313693454448</v>
+        <v>0.02150592532572551</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02964377755280547</v>
+        <v>0.02949535656426723</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3290462</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3270736</v>
+        <v>3269590</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3307170</v>
+        <v>3306818</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9741959790434407</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9683558142943381</v>
+        <v>0.9680166526301365</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9791426481789385</v>
+        <v>0.9790384591570813</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3249</v>
@@ -3701,19 +3701,19 @@
         <v>3444590</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3424139</v>
+        <v>3423648</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3463011</v>
+        <v>3463699</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9752244659134156</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9694344481254841</v>
+        <v>0.9692952212750438</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9804396456678842</v>
+        <v>0.9806343558511218</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6379</v>
@@ -3722,19 +3722,19 @@
         <v>6735052</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6704888</v>
+        <v>6705913</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6758857</v>
+        <v>6761118</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9747217195728048</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9703562224471944</v>
+        <v>0.9705046434357327</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9781668630654555</v>
+        <v>0.9784940746742744</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>13531</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8635</v>
+        <v>8784</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20781</v>
+        <v>20777</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0233883346242177</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01492660071946855</v>
+        <v>0.01518299185857231</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03592082529378537</v>
+        <v>0.03591316924465802</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>78</v>
@@ -4086,19 +4086,19 @@
         <v>40749</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32488</v>
+        <v>31917</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50368</v>
+        <v>50942</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04957057336738495</v>
+        <v>0.04957057336738496</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03952180189568143</v>
+        <v>0.03882694616639436</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06127259152274901</v>
+        <v>0.06197047995064131</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>101</v>
@@ -4107,19 +4107,19 @@
         <v>54280</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44659</v>
+        <v>44621</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66512</v>
+        <v>66087</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03875553044286665</v>
+        <v>0.03875553044286664</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03188667032635679</v>
+        <v>0.03185958833470416</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04748950973972803</v>
+        <v>0.04718624529110953</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>564998</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>557748</v>
+        <v>557752</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>569894</v>
+        <v>569745</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9766116653757825</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9640791747062147</v>
+        <v>0.9640868307553422</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9850733992805317</v>
+        <v>0.9848170081414277</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1349</v>
@@ -4157,19 +4157,19 @@
         <v>781289</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>771670</v>
+        <v>771096</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>789550</v>
+        <v>790121</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.950429426632615</v>
+        <v>0.9504294266326152</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9387274084772508</v>
+        <v>0.9380295200493586</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9604781981043184</v>
+        <v>0.9611730538336056</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2017</v>
@@ -4178,19 +4178,19 @@
         <v>1346287</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1334055</v>
+        <v>1334480</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1355908</v>
+        <v>1355946</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9612444695571335</v>
+        <v>0.9612444695571333</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9525104902602719</v>
+        <v>0.9528137547088907</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9681133296736431</v>
+        <v>0.9681404116652957</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>55442</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40817</v>
+        <v>40802</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76223</v>
+        <v>76723</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02485562147180831</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01829903637622048</v>
+        <v>0.0182920888283946</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.034172000288308</v>
+        <v>0.03439613150651924</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -4303,19 +4303,19 @@
         <v>44438</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33288</v>
+        <v>32776</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60745</v>
+        <v>59857</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02046536851490478</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01533013083918785</v>
+        <v>0.01509449318019064</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.027975330678894</v>
+        <v>0.02756608937689056</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -4324,19 +4324,19 @@
         <v>99880</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79151</v>
+        <v>80536</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>123703</v>
+        <v>126267</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02269000342739018</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01798075908616274</v>
+        <v>0.01829553422578951</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02810178845893322</v>
+        <v>0.02868421048014096</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2175124</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2154343</v>
+        <v>2153843</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2189749</v>
+        <v>2189764</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9751443785281917</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.965827999711692</v>
+        <v>0.9656038684934807</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9817009636237795</v>
+        <v>0.9817079111716053</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2863</v>
@@ -4374,19 +4374,19 @@
         <v>2126954</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2110647</v>
+        <v>2111535</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2138104</v>
+        <v>2138616</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9795346314850953</v>
+        <v>0.9795346314850951</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9720246693211058</v>
+        <v>0.9724339106231094</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9846698691608119</v>
+        <v>0.9849055068198094</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4810</v>
@@ -4395,19 +4395,19 @@
         <v>4302079</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4278256</v>
+        <v>4275692</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4322808</v>
+        <v>4321423</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9773099965726096</v>
+        <v>0.9773099965726099</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9718982115410671</v>
+        <v>0.9713157895198586</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9820192409138372</v>
+        <v>0.9817044657742104</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>12077</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6117</v>
+        <v>6358</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23639</v>
+        <v>24803</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01697122589277457</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008596510580038293</v>
+        <v>0.008935352412192539</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03321971143970057</v>
+        <v>0.03485609926407392</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -4520,19 +4520,19 @@
         <v>13582</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8448</v>
+        <v>8316</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20461</v>
+        <v>20397</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01848252496946925</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0114951878451626</v>
+        <v>0.01131643158359922</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02784210681965705</v>
+        <v>0.02775549426749777</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -4541,19 +4541,19 @@
         <v>25659</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17137</v>
+        <v>17379</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38633</v>
+        <v>37937</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01773904252460946</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01184728993020603</v>
+        <v>0.01201447591773937</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02670826417902369</v>
+        <v>0.02622724818160352</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>699510</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>687948</v>
+        <v>686784</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>705470</v>
+        <v>705229</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9830287741072254</v>
+        <v>0.9830287741072253</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9667802885602993</v>
+        <v>0.9651439007359256</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9914034894199616</v>
+        <v>0.9910646475878074</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>983</v>
@@ -4591,19 +4591,19 @@
         <v>721295</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>714416</v>
+        <v>714480</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>726429</v>
+        <v>726561</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9815174750305306</v>
+        <v>0.9815174750305307</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9721578931803425</v>
+        <v>0.9722445057325019</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9885048121548372</v>
+        <v>0.9886835684164006</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1654</v>
@@ -4612,19 +4612,19 @@
         <v>1420805</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1407831</v>
+        <v>1408527</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1429327</v>
+        <v>1429085</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9822609574753907</v>
+        <v>0.9822609574753904</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9732917358209765</v>
+        <v>0.9737727518183965</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.988152710069794</v>
+        <v>0.9879855240822607</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>81049</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61703</v>
+        <v>63724</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102310</v>
+        <v>102430</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02302094828350559</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01752577322343549</v>
+        <v>0.01809976447603997</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02905980287806705</v>
+        <v>0.02909381841339079</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>157</v>
@@ -4737,19 +4737,19 @@
         <v>98770</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82813</v>
+        <v>82526</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>117453</v>
+        <v>118228</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.02649181220085669</v>
+        <v>0.02649181220085668</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0222120579660404</v>
+        <v>0.02213509913930136</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03150291872198655</v>
+        <v>0.03171091315050138</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>235</v>
@@ -4758,19 +4758,19 @@
         <v>179819</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>155810</v>
+        <v>153546</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>209703</v>
+        <v>211531</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02480608622255306</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02149397071466609</v>
+        <v>0.02118174639480344</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02892852351715269</v>
+        <v>0.02918079685103993</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3439634</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3418373</v>
+        <v>3418253</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3458980</v>
+        <v>3456959</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9769790517164944</v>
+        <v>0.9769790517164945</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.970940197121933</v>
+        <v>0.9709061815866091</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9824742267765645</v>
+        <v>0.98190023552396</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5195</v>
@@ -4808,19 +4808,19 @@
         <v>3629537</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3610854</v>
+        <v>3610079</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3645494</v>
+        <v>3645781</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9735081877991434</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9684970812780137</v>
+        <v>0.9682890868494984</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9777879420339599</v>
+        <v>0.9778649008606985</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8481</v>
@@ -4829,19 +4829,19 @@
         <v>7069171</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7039287</v>
+        <v>7037459</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7093180</v>
+        <v>7095444</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9751939137774469</v>
+        <v>0.975193913777447</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9710714764828473</v>
+        <v>0.9708192031489601</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9785060292853338</v>
+        <v>0.9788182536051965</v>
       </c>
     </row>
     <row r="15">
